--- a/comm.xlsx
+++ b/comm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqiaoling/Desktop/blog/codes/LinS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1158EFCA-CC8F-7A4C-B4D8-04121D5318D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2B58F-B4FC-AC43-97E7-DDD01E7F019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16260" xr2:uid="{32ECE482-280F-AB49-BA3A-398425BA577B}"/>
+    <workbookView xWindow="3340" yWindow="2660" windowWidth="27240" windowHeight="16260" activeTab="5" xr2:uid="{32ECE482-280F-AB49-BA3A-398425BA577B}"/>
   </bookViews>
   <sheets>
     <sheet name="Allreduce" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Broadcast" sheetId="3" r:id="rId3"/>
     <sheet name="Reduce" sheetId="4" r:id="rId4"/>
     <sheet name="ReduceScatter" sheetId="5" r:id="rId5"/>
+    <sheet name="Alltoall" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,6 +38,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505814B9-7703-104C-BC46-6862E0AAA1AE}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1095,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" activeCellId="1" sqref="B17 E20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3193,7 +3198,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3887,4 +3892,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC0A93D-0A1C-CF41-9201-ACD26F3DA16C}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>512</v>
+      </c>
+      <c r="C1">
+        <v>1024</v>
+      </c>
+      <c r="D1">
+        <v>2048</v>
+      </c>
+      <c r="E1">
+        <v>4096</v>
+      </c>
+      <c r="F1">
+        <v>8192</v>
+      </c>
+      <c r="G1">
+        <v>16384</v>
+      </c>
+      <c r="H1">
+        <v>32768</v>
+      </c>
+      <c r="I1">
+        <v>65536</v>
+      </c>
+      <c r="J1">
+        <v>131072</v>
+      </c>
+      <c r="K1">
+        <v>262144</v>
+      </c>
+      <c r="L1">
+        <v>524288</v>
+      </c>
+      <c r="M1">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3.5442000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.8785E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.1076000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.3414999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>9.2584E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.151337</v>
+      </c>
+      <c r="H2">
+        <v>0.25934600000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.48230700000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.89674699999999996</v>
+      </c>
+      <c r="K2">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="L2">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="M2">
+        <v>6.431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>8.6888999999999994E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.113204</v>
+      </c>
+      <c r="D3">
+        <v>0.17749400000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.27146100000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.45524999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.84742999999999991</v>
+      </c>
+      <c r="H3">
+        <v>1.641</v>
+      </c>
+      <c r="I3">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="J3">
+        <v>6.125</v>
+      </c>
+      <c r="K3">
+        <v>12.177</v>
+      </c>
+      <c r="L3">
+        <v>24.724</v>
+      </c>
+      <c r="M3">
+        <v>49.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0.102149</v>
+      </c>
+      <c r="C4">
+        <v>0.14717</v>
+      </c>
+      <c r="D4">
+        <v>0.23011500000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.382689</v>
+      </c>
+      <c r="F4">
+        <v>0.68163899999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="I4">
+        <v>4.8120000000000003</v>
+      </c>
+      <c r="J4">
+        <v>9.5540000000000003</v>
+      </c>
+      <c r="K4">
+        <v>18.706</v>
+      </c>
+      <c r="L4">
+        <v>37.844999999999999</v>
+      </c>
+      <c r="M4">
+        <v>73.224999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0.115658</v>
+      </c>
+      <c r="C5">
+        <v>0.16165000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.25929800000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.43825999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.82209600000000005</v>
+      </c>
+      <c r="G5">
+        <v>1.591</v>
+      </c>
+      <c r="H5">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="I5">
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="J5">
+        <v>11.148</v>
+      </c>
+      <c r="K5">
+        <v>22.108000000000001</v>
+      </c>
+      <c r="L5">
+        <v>41.188000000000002</v>
+      </c>
+      <c r="M5">
+        <v>98.423000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/comm.xlsx
+++ b/comm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqiaoling/Desktop/blog/codes/LinS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2B58F-B4FC-AC43-97E7-DDD01E7F019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB738AF1-18DE-C848-81CE-70D125FA1EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2660" windowWidth="27240" windowHeight="16260" activeTab="5" xr2:uid="{32ECE482-280F-AB49-BA3A-398425BA577B}"/>
+    <workbookView xWindow="-5160" yWindow="-22540" windowWidth="40960" windowHeight="22540" activeTab="5" xr2:uid="{32ECE482-280F-AB49-BA3A-398425BA577B}"/>
   </bookViews>
   <sheets>
     <sheet name="Allreduce" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Broadcast" sheetId="3" r:id="rId3"/>
     <sheet name="Reduce" sheetId="4" r:id="rId4"/>
     <sheet name="ReduceScatter" sheetId="5" r:id="rId5"/>
-    <sheet name="Alltoall" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,10 +38,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,7 +1091,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,7 +3194,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3895,218 +3891,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC0A93D-0A1C-CF41-9201-ACD26F3DA16C}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C8858-C763-7141-927C-C0D0ECE4C57C}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>512</v>
-      </c>
-      <c r="C1">
-        <v>1024</v>
-      </c>
-      <c r="D1">
-        <v>2048</v>
-      </c>
-      <c r="E1">
-        <v>4096</v>
-      </c>
-      <c r="F1">
-        <v>8192</v>
-      </c>
-      <c r="G1">
-        <v>16384</v>
-      </c>
-      <c r="H1">
-        <v>32768</v>
-      </c>
-      <c r="I1">
-        <v>65536</v>
-      </c>
-      <c r="J1">
-        <v>131072</v>
-      </c>
-      <c r="K1">
-        <v>262144</v>
-      </c>
-      <c r="L1">
-        <v>524288</v>
-      </c>
-      <c r="M1">
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>3.5442000000000001E-2</v>
-      </c>
-      <c r="C2">
-        <v>3.8785E-2</v>
-      </c>
-      <c r="D2">
-        <v>4.1076000000000001E-2</v>
-      </c>
-      <c r="E2">
-        <v>6.3414999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>9.2584E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.151337</v>
-      </c>
-      <c r="H2">
-        <v>0.25934600000000002</v>
-      </c>
-      <c r="I2">
-        <v>0.48230700000000004</v>
-      </c>
-      <c r="J2">
-        <v>0.89674699999999996</v>
-      </c>
-      <c r="K2">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="L2">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="M2">
-        <v>6.431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>8.6888999999999994E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.113204</v>
-      </c>
-      <c r="D3">
-        <v>0.17749400000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.27146100000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.45524999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.84742999999999991</v>
-      </c>
-      <c r="H3">
-        <v>1.641</v>
-      </c>
-      <c r="I3">
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="J3">
-        <v>6.125</v>
-      </c>
-      <c r="K3">
-        <v>12.177</v>
-      </c>
-      <c r="L3">
-        <v>24.724</v>
-      </c>
-      <c r="M3">
-        <v>49.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0.102149</v>
-      </c>
-      <c r="C4">
-        <v>0.14717</v>
-      </c>
-      <c r="D4">
-        <v>0.23011500000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.382689</v>
-      </c>
-      <c r="F4">
-        <v>0.68163899999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="H4">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="I4">
-        <v>4.8120000000000003</v>
-      </c>
-      <c r="J4">
-        <v>9.5540000000000003</v>
-      </c>
-      <c r="K4">
-        <v>18.706</v>
-      </c>
-      <c r="L4">
-        <v>37.844999999999999</v>
-      </c>
-      <c r="M4">
-        <v>73.224999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>0.115658</v>
-      </c>
-      <c r="C5">
-        <v>0.16165000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.25929800000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.43825999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.82209600000000005</v>
-      </c>
-      <c r="G5">
-        <v>1.591</v>
-      </c>
-      <c r="H5">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="I5">
-        <v>5.7030000000000003</v>
-      </c>
-      <c r="J5">
-        <v>11.148</v>
-      </c>
-      <c r="K5">
-        <v>22.108000000000001</v>
-      </c>
-      <c r="L5">
-        <v>41.188000000000002</v>
-      </c>
-      <c r="M5">
-        <v>98.423000000000002</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>